--- a/role.xlsx
+++ b/role.xlsx
@@ -659,7 +659,7 @@
     <t>هزینه بصورت نفری از 100 هزار تومان * محاسبه ایراد دارد</t>
   </si>
   <si>
-    <t>هزینه بصورت طبقاتی از 100 هزار تومان* در insert ایراد دارد</t>
+    <t>هزینه بصورت طبقاتی از 100 هزار تومان</t>
   </si>
 </sst>
 </file>
@@ -783,14 +783,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1122,16 +1122,16 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="27">
-      <c r="A2" s="16">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="18" t="s">
         <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -1140,40 +1140,40 @@
       <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="27">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
       <c r="E3" s="6" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:12" ht="27">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="27">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
       <c r="E5" s="6" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:12" ht="27">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -1182,20 +1182,20 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="27">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="18"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:12" ht="27">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16" t="s">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18" t="s">
         <v>14</v>
       </c>
       <c r="E8" s="6" t="s">
@@ -1204,23 +1204,23 @@
       <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:12" ht="27">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:12" ht="27">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="18" t="s">
         <v>18</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -1228,83 +1228,83 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="27">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="18"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
       <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="27">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
       <c r="F12" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="27">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
       <c r="F13" s="6" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="27">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="6" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="27">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="18"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
       <c r="F15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="27">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
       <c r="F16" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="27">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
       <c r="E17" s="6" t="s">
         <v>19</v>
       </c>
       <c r="F17" s="3"/>
     </row>
     <row r="18" spans="1:7" ht="27">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>28</v>
       </c>
       <c r="F18" s="6" t="s">
@@ -1312,60 +1312,60 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="27">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
       <c r="F19" s="6" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="27">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
       <c r="F20" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="27">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
       <c r="F21" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="27">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
       <c r="F22" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="27">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
       <c r="E23" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:7" ht="27">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -1374,26 +1374,26 @@
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:7" ht="27">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:7" ht="27">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16" t="s">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="16" t="s">
+      <c r="F26" s="18" t="s">
         <v>37</v>
       </c>
       <c r="G26" s="6" t="s">
@@ -1401,54 +1401,54 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="27">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
       <c r="G27" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="27">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
       <c r="G28" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="27">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
       <c r="G29" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="27">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
       <c r="F30" s="6" t="s">
         <v>38</v>
       </c>
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="1:7" ht="27">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
       <c r="E31" s="6" t="s">
         <v>35</v>
       </c>
@@ -1456,9 +1456,9 @@
       <c r="G31" s="6"/>
     </row>
     <row r="32" spans="1:7" ht="27">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
       <c r="D32" s="8" t="s">
         <v>43</v>
       </c>
@@ -1478,10 +1478,10 @@
       <c r="C33" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="16" t="s">
+      <c r="E33" s="18" t="s">
         <v>53</v>
       </c>
       <c r="F33" s="6" t="s">
@@ -1492,8 +1492,8 @@
       <c r="A34" s="17"/>
       <c r="B34" s="17"/>
       <c r="C34" s="17"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
       <c r="F34" s="6" t="s">
         <v>55</v>
       </c>
@@ -1502,8 +1502,8 @@
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
       <c r="F35" s="6" t="s">
         <v>56</v>
       </c>
@@ -1512,8 +1512,8 @@
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="18"/>
       <c r="F36" s="6" t="s">
         <v>57</v>
       </c>
@@ -1522,8 +1522,8 @@
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
       <c r="F37" s="6" t="s">
         <v>58</v>
       </c>
@@ -1532,8 +1532,8 @@
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="16"/>
-      <c r="E38" s="16"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
       <c r="F38" s="6" t="s">
         <v>59</v>
       </c>
@@ -1542,8 +1542,8 @@
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="16"/>
-      <c r="E39" s="16"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
       <c r="F39" s="6" t="s">
         <v>60</v>
       </c>
@@ -1552,8 +1552,8 @@
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
       <c r="F40" s="6" t="s">
         <v>61</v>
       </c>
@@ -1562,8 +1562,8 @@
       <c r="A41" s="17"/>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
-      <c r="D41" s="16"/>
-      <c r="E41" s="16"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
       <c r="F41" s="6" t="s">
         <v>62</v>
       </c>
@@ -1572,7 +1572,7 @@
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
-      <c r="D42" s="16"/>
+      <c r="D42" s="18"/>
       <c r="E42" s="8" t="s">
         <v>52</v>
       </c>
@@ -1581,10 +1581,10 @@
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E43" s="16" t="s">
+      <c r="E43" s="18" t="s">
         <v>64</v>
       </c>
       <c r="F43" s="8" t="s">
@@ -1595,8 +1595,8 @@
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="8" t="s">
         <v>38</v>
       </c>
@@ -1605,8 +1605,8 @@
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
-      <c r="D45" s="16"/>
-      <c r="E45" s="16"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="8" t="s">
         <v>67</v>
       </c>
@@ -1615,8 +1615,8 @@
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="8" t="s">
         <v>68</v>
       </c>
@@ -1625,8 +1625,8 @@
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="16"/>
-      <c r="E47" s="16"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
       <c r="F47" s="8" t="s">
         <v>69</v>
       </c>
@@ -1635,8 +1635,8 @@
       <c r="A48" s="17"/>
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
-      <c r="D48" s="16"/>
-      <c r="E48" s="16"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
       <c r="F48" s="8" t="s">
         <v>70</v>
       </c>
@@ -1645,8 +1645,8 @@
       <c r="A49" s="17"/>
       <c r="B49" s="17"/>
       <c r="C49" s="17"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
       <c r="F49" s="8" t="s">
         <v>71</v>
       </c>
@@ -1655,8 +1655,8 @@
       <c r="A50" s="17"/>
       <c r="B50" s="17"/>
       <c r="C50" s="17"/>
-      <c r="D50" s="16"/>
-      <c r="E50" s="16"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
       <c r="F50" s="8" t="s">
         <v>72</v>
       </c>
@@ -1665,8 +1665,8 @@
       <c r="A51" s="17"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
-      <c r="D51" s="16"/>
-      <c r="E51" s="16"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
       <c r="F51" s="8" t="s">
         <v>73</v>
       </c>
@@ -1675,7 +1675,7 @@
       <c r="A52" s="17"/>
       <c r="B52" s="17"/>
       <c r="C52" s="17"/>
-      <c r="D52" s="16"/>
+      <c r="D52" s="18"/>
       <c r="E52" s="8" t="s">
         <v>65</v>
       </c>
@@ -1685,10 +1685,10 @@
       <c r="A53" s="17"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="E53" s="16" t="s">
+      <c r="E53" s="18" t="s">
         <v>75</v>
       </c>
       <c r="F53" s="8" t="s">
@@ -1699,8 +1699,8 @@
       <c r="A54" s="17"/>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
       <c r="F54" s="8" t="s">
         <v>77</v>
       </c>
@@ -1709,8 +1709,8 @@
       <c r="A55" s="17"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
-      <c r="D55" s="16"/>
-      <c r="E55" s="16"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
       <c r="F55" s="8" t="s">
         <v>55</v>
       </c>
@@ -1719,8 +1719,8 @@
       <c r="A56" s="17"/>
       <c r="B56" s="17"/>
       <c r="C56" s="17"/>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
       <c r="F56" s="8" t="s">
         <v>78</v>
       </c>
@@ -1729,8 +1729,8 @@
       <c r="A57" s="17"/>
       <c r="B57" s="17"/>
       <c r="C57" s="17"/>
-      <c r="D57" s="16"/>
-      <c r="E57" s="16"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
       <c r="F57" s="8" t="s">
         <v>79</v>
       </c>
@@ -1739,7 +1739,7 @@
       <c r="A58" s="17"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
-      <c r="D58" s="16"/>
+      <c r="D58" s="18"/>
       <c r="E58" s="8" t="s">
         <v>74</v>
       </c>
@@ -1748,10 +1748,10 @@
       <c r="A59" s="17"/>
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
-      <c r="D59" s="16" t="s">
+      <c r="D59" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="E59" s="16" t="s">
+      <c r="E59" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F59" s="8" t="s">
@@ -1762,8 +1762,8 @@
       <c r="A60" s="17"/>
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
-      <c r="D60" s="16"/>
-      <c r="E60" s="16"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
       <c r="F60" s="8" t="s">
         <v>66</v>
       </c>
@@ -1772,8 +1772,8 @@
       <c r="A61" s="17"/>
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
       <c r="F61" s="8" t="s">
         <v>82</v>
       </c>
@@ -1782,8 +1782,8 @@
       <c r="A62" s="17"/>
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
-      <c r="D62" s="16"/>
-      <c r="E62" s="16"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
       <c r="F62" s="8" t="s">
         <v>83</v>
       </c>
@@ -1792,8 +1792,8 @@
       <c r="A63" s="17"/>
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
       <c r="F63" s="8" t="s">
         <v>71</v>
       </c>
@@ -1802,8 +1802,8 @@
       <c r="A64" s="17"/>
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
-      <c r="D64" s="16"/>
-      <c r="E64" s="16"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
       <c r="F64" s="8" t="s">
         <v>72</v>
       </c>
@@ -1812,8 +1812,8 @@
       <c r="A65" s="17"/>
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
-      <c r="D65" s="16"/>
-      <c r="E65" s="16"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
       <c r="F65" s="8" t="s">
         <v>73</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="A66" s="17"/>
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
-      <c r="D66" s="16"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="8" t="s">
         <v>81</v>
       </c>
@@ -1831,7 +1831,7 @@
       <c r="A67" s="17"/>
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
-      <c r="D67" s="16" t="s">
+      <c r="D67" s="18" t="s">
         <v>84</v>
       </c>
       <c r="E67" s="8" t="s">
@@ -1845,7 +1845,7 @@
       <c r="A68" s="17"/>
       <c r="B68" s="17"/>
       <c r="C68" s="17"/>
-      <c r="D68" s="16"/>
+      <c r="D68" s="18"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8" t="s">
         <v>87</v>
@@ -1855,7 +1855,7 @@
       <c r="A69" s="17"/>
       <c r="B69" s="17"/>
       <c r="C69" s="17"/>
-      <c r="D69" s="16"/>
+      <c r="D69" s="18"/>
       <c r="F69" s="8" t="s">
         <v>88</v>
       </c>
@@ -1864,7 +1864,7 @@
       <c r="A70" s="17"/>
       <c r="B70" s="17"/>
       <c r="C70" s="17"/>
-      <c r="D70" s="16"/>
+      <c r="D70" s="18"/>
       <c r="F70" s="8" t="s">
         <v>78</v>
       </c>
@@ -1873,7 +1873,7 @@
       <c r="A71" s="17"/>
       <c r="B71" s="17"/>
       <c r="C71" s="17"/>
-      <c r="D71" s="16"/>
+      <c r="D71" s="18"/>
       <c r="F71" s="8" t="s">
         <v>79</v>
       </c>
@@ -1882,7 +1882,7 @@
       <c r="A72" s="17"/>
       <c r="B72" s="17"/>
       <c r="C72" s="17"/>
-      <c r="D72" s="16"/>
+      <c r="D72" s="18"/>
       <c r="E72" s="8" t="s">
         <v>84</v>
       </c>
@@ -1899,10 +1899,10 @@
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="16" t="s">
+      <c r="D74" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E74" s="16" t="s">
+      <c r="E74" s="18" t="s">
         <v>199</v>
       </c>
       <c r="F74" s="10" t="s">
@@ -1913,8 +1913,8 @@
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="16"/>
-      <c r="E75" s="16"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
       <c r="F75" s="10" t="s">
         <v>57</v>
       </c>
@@ -1923,8 +1923,8 @@
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="16"/>
-      <c r="E76" s="16"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
       <c r="F76" s="10" t="s">
         <v>197</v>
       </c>
@@ -1933,8 +1933,8 @@
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="16"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
       <c r="F77" s="10" t="s">
         <v>198</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="16"/>
+      <c r="D78" s="18"/>
       <c r="E78" s="10" t="s">
         <v>196</v>
       </c>
@@ -1958,6 +1958,25 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="E74:E77"/>
+    <mergeCell ref="D74:D78"/>
+    <mergeCell ref="C2:C32"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="B2:B32"/>
+    <mergeCell ref="E18:E22"/>
+    <mergeCell ref="D67:D72"/>
+    <mergeCell ref="A2:A32"/>
+    <mergeCell ref="D10:D17"/>
+    <mergeCell ref="D18:D23"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F26:F29"/>
+    <mergeCell ref="E26:E30"/>
+    <mergeCell ref="D26:D31"/>
+    <mergeCell ref="C33:C73"/>
+    <mergeCell ref="B33:B73"/>
     <mergeCell ref="A33:A73"/>
     <mergeCell ref="E59:E65"/>
     <mergeCell ref="D33:D42"/>
@@ -1967,25 +1986,6 @@
     <mergeCell ref="E33:E41"/>
     <mergeCell ref="E53:E57"/>
     <mergeCell ref="E43:E51"/>
-    <mergeCell ref="F26:F29"/>
-    <mergeCell ref="E26:E30"/>
-    <mergeCell ref="D26:D31"/>
-    <mergeCell ref="C33:C73"/>
-    <mergeCell ref="B33:B73"/>
-    <mergeCell ref="A2:A32"/>
-    <mergeCell ref="D10:D17"/>
-    <mergeCell ref="D18:D23"/>
-    <mergeCell ref="D2:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E74:E77"/>
-    <mergeCell ref="D74:D78"/>
-    <mergeCell ref="C2:C32"/>
-    <mergeCell ref="E10:E16"/>
-    <mergeCell ref="B2:B32"/>
-    <mergeCell ref="E18:E22"/>
-    <mergeCell ref="D67:D72"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1997,7 +1997,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2438,7 +2438,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -2477,19 +2477,19 @@
       <c r="F1" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="16" t="s">
         <v>205</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="16" t="s">
         <v>212</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="16" t="s">
         <v>208</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="16" t="s">
         <v>211</v>
       </c>
     </row>
